--- a/dataBase/myTest.xlsx
+++ b/dataBase/myTest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -35,25 +35,12 @@
   </si>
   <si>
     <t>batko</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -358,7 +345,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -366,17 +353,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -435,242 +422,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>3.0</v>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4.0</v>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C6">
         <v>6</v>
       </c>
-      <c r="C7" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D7" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D9" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D10" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>11.0</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D13" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>13.0</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>15.0</v>
-      </c>
-      <c r="B17" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>16.0</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>17.0</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>19.0</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>14.0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>20.0</v>
+      <c r="D6">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/dataBase/myTest.xlsx
+++ b/dataBase/myTest.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Desktop\Team_Work\dataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>ID</t>
   </si>
@@ -345,7 +350,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,10 +358,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,20 +441,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataBase/myTest.xlsx
+++ b/dataBase/myTest.xlsx
@@ -12,14 +12,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7665"/>
   </bookViews>
   <sheets>
-    <sheet name="Employee Data" sheetId="1" r:id="rId1"/>
+    <sheet name="WinnersData" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>ID</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t>batko</t>
+  </si>
+  <si>
+    <t>shmatko</t>
+  </si>
+  <si>
+    <t>gacko</t>
   </si>
 </sst>
 </file>
@@ -358,10 +364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -441,6 +447,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/dataBase/myTest.xlsx
+++ b/dataBase/myTest.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toshiba\Desktop\Team_Work\dataBase\"/>
     </mc:Choice>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>ID</t>
   </si>
@@ -46,12 +46,22 @@
   </si>
   <si>
     <t>gacko</t>
+  </si>
+  <si>
+    <t>bobi</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>ivana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,9 +382,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="8.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="8.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -475,6 +485,76 @@
         <v>20</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>20.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
